--- a/datos/tenencias_2.xlsx
+++ b/datos/tenencias_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Mercado-de-Valores\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Cuenta-COCOS\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB7D10-BA41-44B5-8F4D-0785A04E0F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E08D47F-A32A-4994-B7A7-74696E5AC1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="94">
   <si>
     <t>fecha</t>
   </si>
@@ -220,9 +220,6 @@
     <t>DÃ³lar estadounidense ()</t>
   </si>
   <si>
-    <t>1,14</t>
-  </si>
-  <si>
     <t>1179,52</t>
   </si>
   <si>
@@ -376,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,6 +389,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -610,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="G276" sqref="G276"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -623,7 +628,9 @@
     <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="26" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,8 +1819,8 @@
       <c r="C57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>64</v>
+      <c r="D57" s="3">
+        <v>1.1399999999999999</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -1821,9 +1828,9 @@
       <c r="F57" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="4" t="e">
+      <c r="G57" s="4">
         <f>E57*D57</f>
-        <v>#VALUE!</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1845,7 @@
         <v>46</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1853,7 +1860,7 @@
         <v>45382</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="3">
         <v>1290</v>
@@ -1880,7 +1887,7 @@
         <v>285</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1985,7 +1992,7 @@
         <v>11933</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2195,7 +2202,7 @@
         <v>2803</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2216,7 +2223,7 @@
         <v>2647</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2237,7 +2244,7 @@
         <v>414</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2258,7 +2265,7 @@
         <v>7789</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2339,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -2384,7 +2391,7 @@
         <v>46</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2420,7 +2427,7 @@
         <v>45412</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" s="3">
         <v>128</v>
@@ -2531,7 +2538,7 @@
         <v>1088</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2567,7 +2574,7 @@
         <v>45412</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93" s="3">
         <v>623</v>
@@ -2636,7 +2643,7 @@
         <v>3945</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2720,7 +2727,7 @@
         <v>7789</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2762,7 +2769,7 @@
         <v>3787</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2804,7 +2811,7 @@
         <v>723</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2840,7 +2847,7 @@
         <v>45412</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D106" s="3">
         <v>7693</v>
@@ -2852,8 +2859,8 @@
         <v>45</v>
       </c>
       <c r="G106" s="7">
-        <f>+D106*E106</f>
-        <v>8000720</v>
+        <f>+D106*E106/1000*1040.89</f>
+        <v>8327869.4408000009</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107" s="3">
         <v>1</v>
@@ -2878,557 +2885,583 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108" s="15">
         <f t="shared" si="3"/>
         <v>45412</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="16"/>
+      <c r="C108" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="18">
         <v>1978</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="18">
         <v>1040</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="19">
         <f>+D108*E108</f>
         <v>2057120</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109" s="15">
         <v>45443</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="B109" s="16"/>
+      <c r="C109" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" s="9">
+      <c r="D109" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="21">
         <v>0</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F109" s="20">
         <v>0</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G109" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110" s="15">
         <f>+A109</f>
         <v>45443</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="B110" s="16"/>
+      <c r="C110" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="21">
         <v>1293</v>
       </c>
-      <c r="F110" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="9">
+      <c r="F110" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="15">
         <f t="shared" ref="A111:A133" si="4">+A110</f>
         <v>45443</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D111" s="9">
+      <c r="B111" s="16"/>
+      <c r="C111" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="21">
         <v>1052</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="9">
+      <c r="E111" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="21">
         <v>1170087</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="B112" s="16"/>
+      <c r="C112" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="21">
         <v>182</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="21">
         <v>11987</v>
       </c>
-      <c r="F112" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="9">
+      <c r="F112" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="21">
         <v>2181634</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="B113" s="16"/>
+      <c r="C113" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="21">
         <v>103</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="21">
         <v>24234</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="9">
+      <c r="F113" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="21">
         <v>2496102</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="B114" s="16"/>
+      <c r="C114" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="21">
         <v>4695</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="21">
         <v>71100</v>
       </c>
-      <c r="F114" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="9">
+      <c r="F114" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="21">
         <v>3338145</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="B115" s="16"/>
+      <c r="C115" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="21">
         <v>894</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="21">
         <v>3842</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="9">
+      <c r="F115" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="21">
         <v>3436089</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="B116" s="16"/>
+      <c r="C116" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="21">
         <v>8950</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="21">
         <v>432</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="9">
+      <c r="F116" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="21">
         <v>3870875</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D117" s="9">
+      <c r="B117" s="16"/>
+      <c r="C117" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="21">
         <v>623</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="21">
         <v>7429</v>
       </c>
-      <c r="F117" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="10">
+      <c r="F117" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="22">
         <f>+E117*D117</f>
         <v>4628267</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="B118" s="16"/>
+      <c r="C118" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="21">
         <v>1088</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="21">
         <v>4374</v>
       </c>
-      <c r="F118" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="10">
+      <c r="F118" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="22">
         <f t="shared" ref="G118:G119" si="5">+E118*D118</f>
         <v>4758912</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="21">
         <v>247</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="21">
         <v>21381</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="10">
+      <c r="F119" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="22">
         <f t="shared" si="5"/>
         <v>5281107</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="B120" s="16"/>
+      <c r="C120" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="21">
         <v>182</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="21">
         <v>32820</v>
       </c>
-      <c r="F120" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="9">
+      <c r="F120" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="21">
         <v>5973240</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D121" s="9">
+      <c r="B121" s="16"/>
+      <c r="C121" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" s="21">
         <v>11551</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="21">
         <v>56720</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="9">
+      <c r="F121" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="21">
         <f>+E121*D121/100</f>
         <v>6551727.2000000002</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="B122" s="16"/>
+      <c r="C122" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="21">
         <v>6493</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="21">
         <v>1020</v>
       </c>
-      <c r="F122" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="9">
+      <c r="F122" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="21">
         <f>+E122*D122</f>
         <v>6622860</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="21">
         <v>238</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="21">
         <v>2899</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="9">
+      <c r="F123" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="21">
         <f t="shared" ref="G123:G124" si="6">+E123*D123</f>
         <v>689962</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="B124" s="16"/>
+      <c r="C124" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="21">
         <v>1707</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="21">
         <v>4715</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="9">
+      <c r="F124" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="21">
         <f t="shared" si="6"/>
         <v>8048505</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D125" s="9">
+      <c r="B125" s="16"/>
+      <c r="C125" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="21">
         <v>5272</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="21">
         <v>1606</v>
       </c>
-      <c r="F125" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="9">
+      <c r="F125" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="21">
         <v>8469468</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="B126" s="16"/>
+      <c r="C126" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="21">
         <v>9738</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="21">
         <v>1011</v>
       </c>
-      <c r="F126" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="9">
+      <c r="F126" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="21">
         <v>9849987</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="B127" s="16"/>
+      <c r="C127" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="21">
         <v>4512</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="21">
         <v>2468</v>
       </c>
-      <c r="F127" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="9">
+      <c r="F127" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="21">
         <f>+E127*D127</f>
         <v>11135616</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="B128" s="16"/>
+      <c r="C128" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="21">
         <v>623</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="21">
         <v>20131</v>
       </c>
-      <c r="F128" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="9">
+      <c r="F128" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="21">
         <v>12541613</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="B129" s="16"/>
+      <c r="C129" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="21">
         <v>4079</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="21">
         <v>3091</v>
       </c>
-      <c r="F129" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="9">
+      <c r="F129" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="21">
         <v>12608189</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="B130" s="16"/>
+      <c r="C130" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="21">
         <v>723</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="21">
         <v>17936</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="9">
+      <c r="F130" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="21">
         <v>12967728</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="B131" s="16"/>
+      <c r="C131" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="21">
         <v>27849</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="21">
         <v>68700</v>
       </c>
-      <c r="F131" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="9">
+      <c r="F131" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="21">
         <v>19132263</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D132" s="9">
+      <c r="B132" s="16"/>
+      <c r="C132" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="21">
         <v>3457</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="21">
         <v>1006</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G132" s="9">
-        <f>+E132*D132</f>
-        <v>3477742</v>
+      <c r="G132" s="21">
+        <f>+E132*D132*1215.93/1000</f>
+        <v>4228690.8300600005</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="15">
         <f t="shared" si="4"/>
         <v>45443</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="9">
+      <c r="B133" s="16"/>
+      <c r="C133" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="21">
         <v>-11</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="21">
         <v>1</v>
       </c>
-      <c r="F133" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" s="9">
+      <c r="F133" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="21">
         <v>-11</v>
       </c>
     </row>
@@ -3480,7 +3513,7 @@
         <v>45473</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D136" s="9">
         <v>2231</v>
@@ -3635,7 +3668,7 @@
         <v>45473</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D143" s="9">
         <v>623</v>
@@ -3745,7 +3778,7 @@
         <v>45473</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D148" s="9">
         <v>11551</v>
@@ -3789,7 +3822,7 @@
         <v>45473</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D150" s="9">
         <v>5272</v>
@@ -3943,7 +3976,7 @@
         <v>45473</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D157" s="9">
         <v>9349</v>
@@ -3955,8 +3988,8 @@
         <v>45</v>
       </c>
       <c r="G157" s="8">
-        <f>+D157*E157</f>
-        <v>9423792</v>
+        <f>+D157*E157/1000*1347.96</f>
+        <v>12702894.66432</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3992,7 +4025,7 @@
         <v>46</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>9</v>
@@ -4029,7 +4062,7 @@
         <v>45504</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D161" s="3">
         <v>2231</v>
@@ -4177,7 +4210,7 @@
         <v>45504</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D168" s="3">
         <v>623</v>
@@ -4261,7 +4294,7 @@
         <v>45504</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D172" s="3">
         <v>14100</v>
@@ -4282,7 +4315,7 @@
         <v>45504</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D173" s="3">
         <v>5351</v>
@@ -4430,7 +4463,7 @@
         <v>45504</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D180" s="3">
         <v>34735</v>
@@ -4442,8 +4475,8 @@
         <v>45</v>
       </c>
       <c r="G180" s="8">
-        <f>+E180*D180</f>
-        <v>35117085</v>
+        <f>+E180*D180/1000*1293.33</f>
+        <v>45417979.543049999</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
@@ -4476,7 +4509,7 @@
         <v>45</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
@@ -4647,7 +4680,7 @@
         <v>45534</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D190" s="3">
         <v>3965</v>
@@ -4669,7 +4702,7 @@
         <v>45534</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D191" s="3">
         <v>623</v>
@@ -4735,7 +4768,7 @@
         <v>45534</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D194" s="3">
         <v>6255</v>
@@ -4879,7 +4912,7 @@
         <v>9</v>
       </c>
       <c r="G200" s="8">
-        <f t="shared" ref="G200:G263" si="11">+D200*E200</f>
+        <f t="shared" ref="G200:G260" si="11">+D200*E200</f>
         <v>15470520</v>
       </c>
     </row>
@@ -4889,7 +4922,7 @@
         <v>45534</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D201" s="3">
         <v>38971</v>
@@ -4933,7 +4966,7 @@
         <v>45534</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D203" s="3">
         <v>19916</v>
@@ -4945,8 +4978,8 @@
         <v>45</v>
       </c>
       <c r="G203" s="8">
-        <f>+D203*E203</f>
-        <v>25472564</v>
+        <f>+D203*E203/1000*1279.96</f>
+        <v>32603863.017439999</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5152,7 +5185,7 @@
         <v>45565</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D213" s="3">
         <v>623</v>
@@ -5174,7 +5207,7 @@
         <v>45565</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D214" s="3">
         <v>3965</v>
@@ -5218,7 +5251,7 @@
         <v>45565</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D216" s="3">
         <v>8790</v>
@@ -5328,7 +5361,7 @@
         <v>45565</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D221" s="3">
         <v>6255</v>
@@ -5416,7 +5449,7 @@
         <v>45565</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D225" s="3">
         <v>47066</v>
@@ -5460,7 +5493,7 @@
         <v>45565</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D227" s="3">
         <v>15002</v>
@@ -5472,8 +5505,8 @@
         <v>45</v>
       </c>
       <c r="G227" s="8">
-        <f>+D227*E227</f>
-        <v>18227430</v>
+        <f>+D227*E227/1000*E229</f>
+        <v>22146327.449999999</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5657,7 +5690,7 @@
         <v>45596</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D236" s="3">
         <v>623</v>
@@ -5701,7 +5734,7 @@
         <v>45596</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D238" s="3">
         <v>8790</v>
@@ -5723,7 +5756,7 @@
         <v>45596</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D239" s="3">
         <v>5554</v>
@@ -5899,7 +5932,7 @@
         <v>45596</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D247" s="3">
         <v>47066</v>
@@ -5965,7 +5998,7 @@
         <v>45596</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D250" s="3">
         <v>1.3</v>
@@ -5974,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G250" s="8">
         <f t="shared" si="11"/>
@@ -6052,7 +6085,7 @@
         <v>45626</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D254" s="3">
         <v>6255</v>
@@ -6184,7 +6217,7 @@
         <v>45626</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D260" s="3">
         <v>13124</v>
@@ -6228,7 +6261,7 @@
         <v>45626</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D262" s="3">
         <v>51653</v>
@@ -6250,7 +6283,7 @@
         <v>45626</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D263" s="3">
         <v>24281</v>
@@ -6262,8 +6295,8 @@
         <v>45</v>
       </c>
       <c r="G263" s="8">
-        <f>+D263*E263</f>
-        <v>26102075</v>
+        <f>+D263*E263/1000*E266</f>
+        <v>28059730.625</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6294,7 +6327,7 @@
         <v>45626</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D265" s="3">
         <v>5</v>
@@ -6303,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G265" s="8">
         <f t="shared" si="15"/>
@@ -6337,7 +6370,7 @@
         <v>45657</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D267" s="3">
         <v>472</v>
@@ -6491,7 +6524,7 @@
         <v>45657</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D274" s="3">
         <v>10124</v>
@@ -6513,7 +6546,7 @@
         <v>45657</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D275" s="3">
         <v>41653</v>
@@ -6557,7 +6590,7 @@
         <v>45657</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D277" s="3">
         <v>4</v>
@@ -6569,8 +6602,8 @@
         <v>45</v>
       </c>
       <c r="G277" s="8">
-        <f t="shared" si="15"/>
-        <v>4680</v>
+        <f>+D277*E277/1000*1170</f>
+        <v>5475.5999999999995</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,7 +6634,7 @@
         <v>45657</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D279" s="3">
         <v>5</v>
@@ -6610,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G279" s="8">
         <f t="shared" si="15"/>
